--- a/results/mp/logistic/corona/confidence/210/desired-masking-0.35/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/210/desired-masking-0.35/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="160">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,390 +40,399 @@
     <t>name</t>
   </si>
   <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>killed</t>
+  </si>
+  <si>
+    <t>warned</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>complaints</t>
+  </si>
+  <si>
+    <t>hell</t>
+  </si>
+  <si>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>death</t>
+  </si>
+  <si>
+    <t>falling</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>disgusting</t>
+  </si>
+  <si>
+    <t>kill</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
     <t>warning</t>
   </si>
   <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>arrested</t>
-  </si>
-  <si>
-    <t>complaints</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>hell</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>death</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>kill</t>
+    <t>pressure</t>
+  </si>
+  <si>
+    <t>uncertainty</t>
+  </si>
+  <si>
+    <t>infected</t>
+  </si>
+  <si>
+    <t>problem</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>worse</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>recession</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>struggling</t>
+  </si>
+  <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>sc</t>
   </si>
   <si>
     <t>lowest</t>
   </si>
   <si>
-    <t>slash</t>
-  </si>
-  <si>
-    <t>crash</t>
-  </si>
-  <si>
-    <t>uncertainty</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>forced</t>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>cancelled</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>cut</t>
   </si>
   <si>
     <t>selfish</t>
   </si>
   <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>infected</t>
-  </si>
-  <si>
-    <t>stress</t>
-  </si>
-  <si>
-    <t>ridiculous</t>
-  </si>
-  <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>problem</t>
-  </si>
-  <si>
-    <t>pressure</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>cancelled</t>
-  </si>
-  <si>
-    <t>falling</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>struggling</t>
-  </si>
-  <si>
-    <t>worse</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>avoid</t>
+    <t>ref</t>
+  </si>
+  <si>
+    <t>empty</t>
   </si>
   <si>
     <t>saudi</t>
   </si>
   <si>
-    <t>recession</t>
-  </si>
-  <si>
-    <t>low</t>
+    <t>lower</t>
+  </si>
+  <si>
+    <t>isolation</t>
   </si>
   <si>
     <t>anxiety</t>
   </si>
   <si>
-    <t>sick</t>
-  </si>
-  <si>
-    <t>cut</t>
-  </si>
-  <si>
-    <t>fear</t>
-  </si>
-  <si>
-    <t>shame</t>
-  </si>
-  <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>facing</t>
-  </si>
-  <si>
-    <t>lower</t>
-  </si>
-  <si>
-    <t>empty</t>
+    <t>affected</t>
+  </si>
+  <si>
+    <t>vulnerable</t>
   </si>
   <si>
     <t>risk</t>
   </si>
   <si>
-    <t>shortages</t>
-  </si>
-  <si>
-    <t>isolation</t>
-  </si>
-  <si>
-    <t>vulnerable</t>
+    <t>fight</t>
   </si>
   <si>
     <t>stop</t>
   </si>
   <si>
-    <t>fight</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
+    <t>oil</t>
+  </si>
+  <si>
+    <t>or</t>
+  </si>
+  <si>
+    <t>from</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>:</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
     <t>19</t>
   </si>
   <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>of</t>
-  </si>
-  <si>
     <t>.</t>
   </si>
   <si>
     <t>a</t>
   </si>
   <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
     <t>the</t>
   </si>
   <si>
-    <t>to</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>sharing</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
-    <t>love</t>
+    <t>wow</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
     <t>join</t>
   </si>
   <si>
     <t>happy</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
     <t>hand</t>
   </si>
   <si>
     <t>friend</t>
   </si>
   <si>
-    <t>amazing</t>
+    <t>safe</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
     <t>great</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>wow</t>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>friends</t>
   </si>
   <si>
     <t>strong</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>safe</t>
+    <t>better</t>
+  </si>
+  <si>
+    <t>god</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>create</t>
   </si>
   <si>
     <t>won</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>create</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>gt</t>
+    <t>funny</t>
+  </si>
+  <si>
+    <t>toronto</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
     <t>safety</t>
   </si>
   <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>wish</t>
+    <t>help</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>relief</t>
   </si>
   <si>
     <t>giving</t>
   </si>
   <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>growth</t>
+    <t>important</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>super</t>
+  </si>
+  <si>
+    <t>shares</t>
+  </si>
+  <si>
+    <t>boost</t>
   </si>
   <si>
     <t>ready</t>
   </si>
   <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>funny</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>toronto</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
     <t>kind</t>
   </si>
   <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>god</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>team</t>
-  </si>
-  <si>
-    <t>super</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>hope</t>
+    <t>alert</t>
   </si>
   <si>
     <t>clean</t>
   </si>
   <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>important</t>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>easter</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>data</t>
   </si>
   <si>
     <t>dear</t>
   </si>
   <si>
-    <t>alert</t>
-  </si>
-  <si>
     <t>sure</t>
   </si>
   <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>easter</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>yourself</t>
-  </si>
-  <si>
     <t>credit</t>
   </si>
   <si>
@@ -433,37 +442,58 @@
     <t>energy</t>
   </si>
   <si>
-    <t>amazon</t>
+    <t>article</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>check</t>
   </si>
   <si>
     <t>keep</t>
   </si>
   <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>check</t>
+    <t>day</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>our</t>
   </si>
   <si>
     <t>shopping</t>
   </si>
   <si>
-    <t>you</t>
+    <t>your</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>!</t>
+  </si>
+  <si>
+    <t>are</t>
   </si>
   <si>
     <t>for</t>
   </si>
   <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
     <t>corona</t>
-  </si>
-  <si>
-    <t>and</t>
-  </si>
-  <si>
-    <t>,</t>
-  </si>
-  <si>
-    <t>?</t>
   </si>
 </sst>
 </file>
@@ -821,7 +851,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q84"/>
+  <dimension ref="A1:Q94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -829,10 +859,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="J1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -890,13 +920,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="D3">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -908,19 +938,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K3">
-        <v>0.9666666666666667</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="L3">
-        <v>116</v>
+        <v>45</v>
       </c>
       <c r="M3">
-        <v>116</v>
+        <v>45</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -932,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -940,13 +970,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9411764705882353</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="D4">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -958,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K4">
-        <v>0.9565217391304348</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="L4">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="M4">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -990,13 +1020,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9333333333333333</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1008,19 +1038,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K5">
-        <v>0.9491525423728814</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="L5">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="M5">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -1032,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1040,13 +1070,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9285714285714286</v>
+        <v>0.9459459459459459</v>
       </c>
       <c r="C6">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="D6">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1058,10 +1088,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="K6">
         <v>0.9393939393939394</v>
@@ -1090,13 +1120,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9210526315789473</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="C7">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="D7">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1108,19 +1138,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="K7">
-        <v>0.9302325581395349</v>
+        <v>0.9375</v>
       </c>
       <c r="L7">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="M7">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1132,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1140,13 +1170,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8918918918918919</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="C8">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D8">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1158,19 +1188,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K8">
-        <v>0.9230769230769231</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="L8">
-        <v>24</v>
+        <v>112</v>
       </c>
       <c r="M8">
-        <v>24</v>
+        <v>112</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1182,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1190,13 +1220,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8888888888888888</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="C9">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D9">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1211,16 +1241,16 @@
         <v>4</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="K9">
-        <v>0.9166666666666666</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="L9">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="M9">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1232,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1240,13 +1270,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8695652173913043</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C10">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D10">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1258,19 +1288,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="K10">
-        <v>0.9086161879895561</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L10">
-        <v>348</v>
+        <v>55</v>
       </c>
       <c r="M10">
-        <v>348</v>
+        <v>55</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1282,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>35</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1290,13 +1320,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.8666666666666667</v>
+        <v>0.85</v>
       </c>
       <c r="C11">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D11">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1308,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K11">
-        <v>0.8947368421052632</v>
+        <v>0.9302325581395349</v>
       </c>
       <c r="L11">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="M11">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1332,7 +1362,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1340,13 +1370,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.8666666666666667</v>
+        <v>0.8458904109589042</v>
       </c>
       <c r="C12">
-        <v>13</v>
+        <v>247</v>
       </c>
       <c r="D12">
-        <v>13</v>
+        <v>247</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1358,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K12">
-        <v>0.8888888888888888</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L12">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="M12">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1390,13 +1420,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.8527397260273972</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="C13">
-        <v>249</v>
+        <v>16</v>
       </c>
       <c r="D13">
-        <v>249</v>
+        <v>16</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1408,19 +1438,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K13">
-        <v>0.8867924528301887</v>
+        <v>0.8955613577023499</v>
       </c>
       <c r="L13">
-        <v>94</v>
+        <v>343</v>
       </c>
       <c r="M13">
-        <v>94</v>
+        <v>343</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1432,7 +1462,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1461,28 +1491,28 @@
         <v>3</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K14">
-        <v>0.8738738738738738</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L14">
-        <v>97</v>
+        <v>17</v>
       </c>
       <c r="M14">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="N14">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O14">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1490,13 +1520,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.8260869565217391</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C15">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D15">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1508,19 +1538,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K15">
-        <v>0.86875</v>
+        <v>0.8873239436619719</v>
       </c>
       <c r="L15">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="M15">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1532,7 +1562,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1540,13 +1570,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.8235294117647058</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="C16">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D16">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1558,19 +1588,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="K16">
-        <v>0.8671875</v>
+        <v>0.8867924528301887</v>
       </c>
       <c r="L16">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="M16">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1582,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1590,13 +1620,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.8125</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="C17">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D17">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1608,19 +1638,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K17">
-        <v>0.8666666666666667</v>
+        <v>0.875</v>
       </c>
       <c r="L17">
-        <v>13</v>
+        <v>112</v>
       </c>
       <c r="M17">
-        <v>13</v>
+        <v>112</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1632,7 +1662,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1640,13 +1670,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.7826086956521739</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="C18">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D18">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1658,19 +1688,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K18">
-        <v>0.8636363636363636</v>
+        <v>0.875</v>
       </c>
       <c r="L18">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="M18">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1682,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1690,13 +1720,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.7692307692307693</v>
+        <v>0.76</v>
       </c>
       <c r="C19">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D19">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1711,16 +1741,16 @@
         <v>6</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="K19">
-        <v>0.8620689655172413</v>
+        <v>0.875</v>
       </c>
       <c r="L19">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="M19">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1732,7 +1762,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1740,13 +1770,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.7586206896551724</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="C20">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D20">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1761,16 +1791,16 @@
         <v>7</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K20">
-        <v>0.8611111111111112</v>
+        <v>0.8723404255319149</v>
       </c>
       <c r="L20">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="M20">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1782,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1790,13 +1820,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.6944444444444444</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="C21">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D21">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1808,19 +1838,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="K21">
-        <v>0.8591549295774648</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="L21">
-        <v>122</v>
+        <v>50</v>
       </c>
       <c r="M21">
-        <v>122</v>
+        <v>50</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1832,7 +1862,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1840,13 +1870,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.6923076923076923</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C22">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D22">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1858,19 +1888,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K22">
-        <v>0.8461538461538461</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="L22">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="M22">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1882,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1890,13 +1920,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.6862745098039216</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="C23">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="D23">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1908,19 +1938,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="K23">
-        <v>0.8297872340425532</v>
+        <v>0.8414634146341463</v>
       </c>
       <c r="L23">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="M23">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1932,7 +1962,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1940,13 +1970,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.6842105263157895</v>
+        <v>0.717948717948718</v>
       </c>
       <c r="C24">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D24">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1958,31 +1988,31 @@
         <v>0</v>
       </c>
       <c r="H24">
+        <v>11</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K24">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="L24">
+        <v>30</v>
+      </c>
+      <c r="M24">
+        <v>30</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
         <v>6</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K24">
-        <v>0.8292682926829268</v>
-      </c>
-      <c r="L24">
-        <v>68</v>
-      </c>
-      <c r="M24">
-        <v>68</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1990,13 +2020,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.6842105263157895</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="C25">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D25">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -2008,19 +2038,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="K25">
-        <v>0.8235294117647058</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="L25">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="M25">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -2032,7 +2062,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -2040,13 +2070,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.6818181818181818</v>
+        <v>0.7</v>
       </c>
       <c r="C26">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D26">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2058,19 +2088,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="K26">
-        <v>0.8214285714285714</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L26">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="M26">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -2082,7 +2112,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2090,13 +2120,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.6779661016949152</v>
+        <v>0.6918604651162791</v>
       </c>
       <c r="C27">
-        <v>40</v>
+        <v>357</v>
       </c>
       <c r="D27">
-        <v>40</v>
+        <v>357</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2108,19 +2138,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>19</v>
+        <v>159</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="K27">
-        <v>0.8148148148148148</v>
+        <v>0.7936507936507936</v>
       </c>
       <c r="L27">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="M27">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2132,7 +2162,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2140,13 +2170,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.6724806201550387</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="C28">
-        <v>347</v>
+        <v>40</v>
       </c>
       <c r="D28">
-        <v>347</v>
+        <v>40</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2158,19 +2188,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>169</v>
+        <v>19</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="K28">
-        <v>0.8125</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L28">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M28">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2182,7 +2212,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2190,13 +2220,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.6666666666666666</v>
+        <v>0.6774193548387096</v>
       </c>
       <c r="C29">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D29">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2211,16 +2241,16 @@
         <v>10</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="K29">
-        <v>0.7936507936507936</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L29">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="M29">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2232,7 +2262,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2243,10 +2273,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="C30">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="D30">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2258,19 +2288,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="K30">
-        <v>0.7916666666666666</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L30">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="M30">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2282,7 +2312,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2290,13 +2320,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.6613756613756614</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C31">
-        <v>125</v>
+        <v>20</v>
       </c>
       <c r="D31">
-        <v>125</v>
+        <v>20</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2308,10 +2338,10 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="K31">
         <v>0.775</v>
@@ -2340,13 +2370,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.6538461538461539</v>
+        <v>0.65625</v>
       </c>
       <c r="C32">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D32">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2358,19 +2388,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="K32">
-        <v>0.7676470588235295</v>
+        <v>0.7714285714285715</v>
       </c>
       <c r="L32">
-        <v>261</v>
+        <v>27</v>
       </c>
       <c r="M32">
-        <v>261</v>
+        <v>27</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2382,7 +2412,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>79</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2390,13 +2420,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.65</v>
+        <v>0.656084656084656</v>
       </c>
       <c r="C33">
-        <v>26</v>
+        <v>124</v>
       </c>
       <c r="D33">
-        <v>26</v>
+        <v>124</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2408,19 +2438,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="K33">
-        <v>0.7450980392156863</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="L33">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M33">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2432,7 +2462,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2440,13 +2470,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.6410256410256411</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="C34">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D34">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2458,19 +2488,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="K34">
-        <v>0.7428571428571429</v>
+        <v>0.7435897435897436</v>
       </c>
       <c r="L34">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M34">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2482,7 +2512,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2490,13 +2520,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.6333333333333333</v>
+        <v>0.6410256410256411</v>
       </c>
       <c r="C35">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D35">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2508,19 +2538,19 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="K35">
-        <v>0.7368421052631579</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="L35">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="M35">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2532,7 +2562,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2540,13 +2570,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.625</v>
+        <v>0.6174496644295302</v>
       </c>
       <c r="C36">
-        <v>15</v>
+        <v>92</v>
       </c>
       <c r="D36">
-        <v>15</v>
+        <v>92</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2558,19 +2588,19 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="K36">
-        <v>0.7272727272727273</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="L36">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="M36">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2582,7 +2612,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2590,13 +2620,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.5972222222222222</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="C37">
-        <v>215</v>
+        <v>16</v>
       </c>
       <c r="D37">
-        <v>215</v>
+        <v>16</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2608,19 +2638,19 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>145</v>
+        <v>10</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="K37">
-        <v>0.7154811715481172</v>
+        <v>0.7352941176470589</v>
       </c>
       <c r="L37">
-        <v>171</v>
+        <v>250</v>
       </c>
       <c r="M37">
-        <v>171</v>
+        <v>250</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2632,7 +2662,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>68</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2640,13 +2670,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.5818181818181818</v>
+        <v>0.6083333333333333</v>
       </c>
       <c r="C38">
-        <v>32</v>
+        <v>219</v>
       </c>
       <c r="D38">
-        <v>32</v>
+        <v>219</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2658,19 +2688,19 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>23</v>
+        <v>141</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="K38">
-        <v>0.7142857142857143</v>
+        <v>0.7154811715481172</v>
       </c>
       <c r="L38">
-        <v>20</v>
+        <v>171</v>
       </c>
       <c r="M38">
-        <v>20</v>
+        <v>171</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2682,7 +2712,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>8</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2690,13 +2720,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.5806451612903226</v>
+        <v>0.5945945945945946</v>
       </c>
       <c r="C39">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D39">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2708,10 +2738,10 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="K39">
         <v>0.7142857142857143</v>
@@ -2740,13 +2770,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.5806451612903226</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="C40">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="D40">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2758,10 +2788,10 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="K40">
         <v>0.7083333333333334</v>
@@ -2790,13 +2820,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.5771812080536913</v>
+        <v>0.509090909090909</v>
       </c>
       <c r="C41">
-        <v>86</v>
+        <v>28</v>
       </c>
       <c r="D41">
-        <v>86</v>
+        <v>28</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2808,19 +2838,19 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="K41">
-        <v>0.6956521739130435</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="L41">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="M41">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2832,7 +2862,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2840,13 +2870,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.5483870967741935</v>
+        <v>0.509090909090909</v>
       </c>
       <c r="C42">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D42">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2858,19 +2888,19 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="K42">
-        <v>0.6915254237288135</v>
+        <v>0.7050847457627119</v>
       </c>
       <c r="L42">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="M42">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2882,7 +2912,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2890,13 +2920,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.53125</v>
+        <v>0.5</v>
       </c>
       <c r="C43">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D43">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2908,19 +2938,19 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="K43">
-        <v>0.6842105263157895</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="L43">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M43">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2932,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2940,49 +2970,49 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.509090909090909</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="C44">
+        <v>13</v>
+      </c>
+      <c r="D44">
+        <v>13</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44" t="b">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>14</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K44">
+        <v>0.7021276595744681</v>
+      </c>
+      <c r="L44">
+        <v>66</v>
+      </c>
+      <c r="M44">
+        <v>66</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q44">
         <v>28</v>
-      </c>
-      <c r="D44">
-        <v>28</v>
-      </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-      <c r="F44">
-        <v>1</v>
-      </c>
-      <c r="G44" t="b">
-        <v>0</v>
-      </c>
-      <c r="H44">
-        <v>27</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="K44">
-        <v>0.6818181818181818</v>
-      </c>
-      <c r="L44">
-        <v>15</v>
-      </c>
-      <c r="M44">
-        <v>15</v>
-      </c>
-      <c r="N44">
-        <v>1</v>
-      </c>
-      <c r="O44">
-        <v>0</v>
-      </c>
-      <c r="P44" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q44">
-        <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -2990,13 +3020,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.5</v>
+        <v>0.4555555555555555</v>
       </c>
       <c r="C45">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="D45">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -3008,19 +3038,19 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="K45">
-        <v>0.6702127659574468</v>
+        <v>0.7</v>
       </c>
       <c r="L45">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="M45">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -3032,7 +3062,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>31</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -3040,13 +3070,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.4864864864864865</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="C46">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D46">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -3058,19 +3088,19 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="K46">
-        <v>0.6666666666666666</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="L46">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="M46">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -3082,7 +3112,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -3090,13 +3120,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.4666666666666667</v>
+        <v>0.4464285714285715</v>
       </c>
       <c r="C47">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D47">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -3108,19 +3138,19 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="K47">
-        <v>0.6666666666666666</v>
+        <v>0.6888888888888889</v>
       </c>
       <c r="L47">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="M47">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -3132,7 +3162,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -3140,38 +3170,38 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.4545454545454545</v>
+        <v>0.4313725490196079</v>
       </c>
       <c r="C48">
+        <v>22</v>
+      </c>
+      <c r="D48">
+        <v>22</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48" t="b">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>29</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K48">
+        <v>0.6818181818181818</v>
+      </c>
+      <c r="L48">
         <v>15</v>
       </c>
-      <c r="D48">
+      <c r="M48">
         <v>15</v>
       </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-      <c r="F48">
-        <v>1</v>
-      </c>
-      <c r="G48" t="b">
-        <v>0</v>
-      </c>
-      <c r="H48">
-        <v>18</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="K48">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="L48">
-        <v>18</v>
-      </c>
-      <c r="M48">
-        <v>18</v>
-      </c>
       <c r="N48">
         <v>1</v>
       </c>
@@ -3182,7 +3212,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:17">
@@ -3190,13 +3220,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.4464285714285715</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="C49">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D49">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -3208,19 +3238,19 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="K49">
         <v>0.6666666666666666</v>
       </c>
       <c r="L49">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M49">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -3232,7 +3262,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50" spans="1:17">
@@ -3240,13 +3270,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.4222222222222222</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="C50">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="D50">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -3258,19 +3288,19 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="K50">
-        <v>0.6571428571428571</v>
+        <v>0.6615384615384615</v>
       </c>
       <c r="L50">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="M50">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -3282,7 +3312,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51" spans="1:17">
@@ -3290,13 +3320,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.3766233766233766</v>
+        <v>0.375</v>
       </c>
       <c r="C51">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D51">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -3308,19 +3338,19 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="K51">
-        <v>0.6538461538461539</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="L51">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="M51">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -3332,7 +3362,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" spans="1:17">
@@ -3340,13 +3370,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.3658536585365854</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="C52">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D52">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -3358,19 +3388,19 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="K52">
-        <v>0.625</v>
+        <v>0.6404494382022472</v>
       </c>
       <c r="L52">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="M52">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -3382,7 +3412,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>9</v>
+        <v>32</v>
       </c>
     </row>
     <row r="53" spans="1:17">
@@ -3390,13 +3420,13 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.3529411764705883</v>
+        <v>0.3625</v>
       </c>
       <c r="C53">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D53">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -3408,19 +3438,19 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="K53">
-        <v>0.62</v>
+        <v>0.625</v>
       </c>
       <c r="L53">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="M53">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -3432,7 +3462,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54" spans="1:17">
@@ -3440,13 +3470,13 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.35</v>
+        <v>0.3412698412698413</v>
       </c>
       <c r="C54">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="D54">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -3458,19 +3488,19 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>26</v>
+        <v>166</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="K54">
-        <v>0.6179775280898876</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="L54">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M54">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -3482,7 +3512,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>34</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55" spans="1:17">
@@ -3490,13 +3520,13 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.3412698412698413</v>
+        <v>0.2439678284182306</v>
       </c>
       <c r="C55">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D55">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -3508,19 +3538,19 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>166</v>
+        <v>282</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="K55">
-        <v>0.6</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="L55">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="M55">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -3532,7 +3562,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>26</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56" spans="1:17">
@@ -3540,13 +3570,13 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.3</v>
+        <v>0.1433333333333333</v>
       </c>
       <c r="C56">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="D56">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -3558,19 +3588,19 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>56</v>
+        <v>257</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="K56">
-        <v>0.5806451612903226</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="L56">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M56">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -3582,7 +3612,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="57" spans="1:17">
@@ -3590,13 +3620,13 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.2198391420911528</v>
+        <v>0.03804347826086957</v>
       </c>
       <c r="C57">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="D57">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -3608,19 +3638,19 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>291</v>
+        <v>354</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="K57">
-        <v>0.5652173913043478</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L57">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M57">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -3640,37 +3670,37 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.01215521271622253</v>
+        <v>0.0207667731629393</v>
       </c>
       <c r="C58">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D58">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="E58">
-        <v>0.13</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F58">
-        <v>0.87</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G58" t="b">
         <v>1</v>
       </c>
       <c r="H58">
-        <v>2113</v>
+        <v>613</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="K58">
-        <v>0.5555555555555556</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L58">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M58">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -3682,7 +3712,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59" spans="1:17">
@@ -3690,37 +3720,37 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.01096774193548387</v>
+        <v>0.01606086221470837</v>
       </c>
       <c r="C59">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D59">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E59">
-        <v>0.17</v>
+        <v>0.25</v>
       </c>
       <c r="F59">
-        <v>0.83</v>
+        <v>0.75</v>
       </c>
       <c r="G59" t="b">
         <v>1</v>
       </c>
       <c r="H59">
-        <v>3066</v>
+        <v>2328</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="K59">
-        <v>0.5357142857142857</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="L59">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M59">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -3732,7 +3762,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="60" spans="1:17">
@@ -3740,37 +3770,37 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.007588532883642495</v>
+        <v>0.01598173515981735</v>
       </c>
       <c r="C60">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D60">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E60">
-        <v>0.28</v>
+        <v>0.3</v>
       </c>
       <c r="F60">
-        <v>0.72</v>
+        <v>0.7</v>
       </c>
       <c r="G60" t="b">
         <v>1</v>
       </c>
       <c r="H60">
-        <v>2354</v>
+        <v>862</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="K60">
-        <v>0.5238095238095238</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L60">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M60">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -3782,7 +3812,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="61" spans="1:17">
@@ -3790,37 +3820,37 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.006438631790744467</v>
+        <v>0.01449742268041237</v>
       </c>
       <c r="C61">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="D61">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="E61">
-        <v>0.45</v>
+        <v>0.06</v>
       </c>
       <c r="F61">
-        <v>0.55</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G61" t="b">
         <v>1</v>
       </c>
       <c r="H61">
-        <v>4938</v>
+        <v>3059</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K61">
         <v>0.5</v>
       </c>
       <c r="L61">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="M61">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -3832,7 +3862,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="62" spans="1:17">
@@ -3840,37 +3870,37 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.00565955594253374</v>
+        <v>0.009350163627863487</v>
       </c>
       <c r="C62">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D62">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E62">
-        <v>0.48</v>
+        <v>0.17</v>
       </c>
       <c r="F62">
-        <v>0.52</v>
+        <v>0.83</v>
       </c>
       <c r="G62" t="b">
         <v>1</v>
       </c>
       <c r="H62">
-        <v>2284</v>
+        <v>2119</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="K62">
-        <v>0.4912280701754386</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="L62">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="M62">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -3882,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" spans="1:17">
@@ -3890,49 +3920,49 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.005646417445482866</v>
+        <v>0.008067769261799113</v>
       </c>
       <c r="C63">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="D63">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="E63">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="F63">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="G63" t="b">
         <v>1</v>
       </c>
       <c r="H63">
-        <v>5107</v>
+        <v>4918</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K63">
-        <v>0.4871794871794872</v>
+        <v>0.4794520547945205</v>
       </c>
       <c r="L63">
+        <v>35</v>
+      </c>
+      <c r="M63">
+        <v>35</v>
+      </c>
+      <c r="N63">
+        <v>1</v>
+      </c>
+      <c r="O63">
+        <v>0</v>
+      </c>
+      <c r="P63" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q63">
         <v>38</v>
-      </c>
-      <c r="M63">
-        <v>38</v>
-      </c>
-      <c r="N63">
-        <v>1</v>
-      </c>
-      <c r="O63">
-        <v>0</v>
-      </c>
-      <c r="P63" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q63">
-        <v>40</v>
       </c>
     </row>
     <row r="64" spans="1:17">
@@ -3940,569 +3970,901 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.004177303318635414</v>
+        <v>0.007417102966841187</v>
       </c>
       <c r="C64">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D64">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E64">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="F64">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="G64" t="b">
         <v>1</v>
       </c>
       <c r="H64">
-        <v>4291</v>
+        <v>2275</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="K64">
-        <v>0.4838709677419355</v>
+        <v>0.4754098360655737</v>
       </c>
       <c r="L64">
+        <v>29</v>
+      </c>
+      <c r="M64">
+        <v>29</v>
+      </c>
+      <c r="N64">
+        <v>1</v>
+      </c>
+      <c r="O64">
+        <v>0</v>
+      </c>
+      <c r="P64" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17">
+      <c r="A65" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B65">
+        <v>0.006052141527001862</v>
+      </c>
+      <c r="C65">
+        <v>26</v>
+      </c>
+      <c r="D65">
+        <v>58</v>
+      </c>
+      <c r="E65">
+        <v>0.55</v>
+      </c>
+      <c r="F65">
+        <v>0.45</v>
+      </c>
+      <c r="G65" t="b">
+        <v>1</v>
+      </c>
+      <c r="H65">
+        <v>4270</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="K65">
+        <v>0.4736842105263158</v>
+      </c>
+      <c r="L65">
+        <v>27</v>
+      </c>
+      <c r="M65">
+        <v>27</v>
+      </c>
+      <c r="N65">
+        <v>1</v>
+      </c>
+      <c r="O65">
+        <v>0</v>
+      </c>
+      <c r="P65" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17">
+      <c r="A66" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B66">
+        <v>0.005782734407269723</v>
+      </c>
+      <c r="C66">
+        <v>14</v>
+      </c>
+      <c r="D66">
+        <v>38</v>
+      </c>
+      <c r="E66">
+        <v>0.63</v>
+      </c>
+      <c r="F66">
+        <v>0.37</v>
+      </c>
+      <c r="G66" t="b">
+        <v>1</v>
+      </c>
+      <c r="H66">
+        <v>2407</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="K66">
+        <v>0.4642857142857143</v>
+      </c>
+      <c r="L66">
+        <v>13</v>
+      </c>
+      <c r="M66">
+        <v>13</v>
+      </c>
+      <c r="N66">
+        <v>1</v>
+      </c>
+      <c r="O66">
+        <v>0</v>
+      </c>
+      <c r="P66" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q66">
         <v>15</v>
       </c>
-      <c r="M64">
+    </row>
+    <row r="67" spans="1:17">
+      <c r="A67" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B67">
+        <v>0.005261106780982073</v>
+      </c>
+      <c r="C67">
+        <v>27</v>
+      </c>
+      <c r="D67">
+        <v>60</v>
+      </c>
+      <c r="E67">
+        <v>0.55</v>
+      </c>
+      <c r="F67">
+        <v>0.45</v>
+      </c>
+      <c r="G67" t="b">
+        <v>1</v>
+      </c>
+      <c r="H67">
+        <v>5105</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="K67">
+        <v>0.453125</v>
+      </c>
+      <c r="L67">
+        <v>29</v>
+      </c>
+      <c r="M67">
+        <v>29</v>
+      </c>
+      <c r="N67">
+        <v>1</v>
+      </c>
+      <c r="O67">
+        <v>0</v>
+      </c>
+      <c r="P67" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q67">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17">
+      <c r="J68" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="K68">
+        <v>0.4411764705882353</v>
+      </c>
+      <c r="L68">
         <v>15</v>
       </c>
-      <c r="N64">
-        <v>1</v>
-      </c>
-      <c r="O64">
-        <v>0</v>
-      </c>
-      <c r="P64" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q64">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="65" spans="10:17">
-      <c r="J65" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="K65">
-        <v>0.4794520547945205</v>
-      </c>
-      <c r="L65">
-        <v>35</v>
-      </c>
-      <c r="M65">
-        <v>35</v>
-      </c>
-      <c r="N65">
-        <v>1</v>
-      </c>
-      <c r="O65">
-        <v>0</v>
-      </c>
-      <c r="P65" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q65">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="66" spans="10:17">
-      <c r="J66" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="K66">
-        <v>0.4262295081967213</v>
-      </c>
-      <c r="L66">
+      <c r="M68">
+        <v>15</v>
+      </c>
+      <c r="N68">
+        <v>1</v>
+      </c>
+      <c r="O68">
+        <v>0</v>
+      </c>
+      <c r="P68" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q68">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17">
+      <c r="J69" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="K69">
+        <v>0.4406779661016949</v>
+      </c>
+      <c r="L69">
         <v>26</v>
       </c>
-      <c r="M66">
+      <c r="M69">
         <v>26</v>
       </c>
-      <c r="N66">
-        <v>1</v>
-      </c>
-      <c r="O66">
-        <v>0</v>
-      </c>
-      <c r="P66" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q66">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="67" spans="10:17">
-      <c r="J67" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="K67">
-        <v>0.4</v>
-      </c>
-      <c r="L67">
-        <v>14</v>
-      </c>
-      <c r="M67">
-        <v>14</v>
-      </c>
-      <c r="N67">
-        <v>1</v>
-      </c>
-      <c r="O67">
-        <v>0</v>
-      </c>
-      <c r="P67" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q67">
+      <c r="N69">
+        <v>1</v>
+      </c>
+      <c r="O69">
+        <v>0</v>
+      </c>
+      <c r="P69" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q69">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17">
+      <c r="J70" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="K70">
+        <v>0.375</v>
+      </c>
+      <c r="L70">
+        <v>15</v>
+      </c>
+      <c r="M70">
+        <v>15</v>
+      </c>
+      <c r="N70">
+        <v>1</v>
+      </c>
+      <c r="O70">
+        <v>0</v>
+      </c>
+      <c r="P70" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q70">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17">
+      <c r="J71" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="K71">
+        <v>0.2954545454545455</v>
+      </c>
+      <c r="L71">
+        <v>13</v>
+      </c>
+      <c r="M71">
+        <v>13</v>
+      </c>
+      <c r="N71">
+        <v>1</v>
+      </c>
+      <c r="O71">
+        <v>0</v>
+      </c>
+      <c r="P71" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q71">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17">
+      <c r="J72" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="K72">
+        <v>0.2638888888888889</v>
+      </c>
+      <c r="L72">
+        <v>19</v>
+      </c>
+      <c r="M72">
+        <v>19</v>
+      </c>
+      <c r="N72">
+        <v>1</v>
+      </c>
+      <c r="O72">
+        <v>0</v>
+      </c>
+      <c r="P72" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q72">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17">
+      <c r="J73" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="K73">
+        <v>0.2385321100917431</v>
+      </c>
+      <c r="L73">
+        <v>26</v>
+      </c>
+      <c r="M73">
+        <v>26</v>
+      </c>
+      <c r="N73">
+        <v>1</v>
+      </c>
+      <c r="O73">
+        <v>0</v>
+      </c>
+      <c r="P73" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q73">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17">
+      <c r="J74" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="K74">
+        <v>0.1774193548387097</v>
+      </c>
+      <c r="L74">
+        <v>22</v>
+      </c>
+      <c r="M74">
+        <v>22</v>
+      </c>
+      <c r="N74">
+        <v>1</v>
+      </c>
+      <c r="O74">
+        <v>0</v>
+      </c>
+      <c r="P74" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q74">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17">
+      <c r="J75" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="K75">
+        <v>0.1328671328671329</v>
+      </c>
+      <c r="L75">
+        <v>19</v>
+      </c>
+      <c r="M75">
+        <v>19</v>
+      </c>
+      <c r="N75">
+        <v>1</v>
+      </c>
+      <c r="O75">
+        <v>0</v>
+      </c>
+      <c r="P75" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q75">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17">
+      <c r="J76" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="K76">
+        <v>0.1135135135135135</v>
+      </c>
+      <c r="L76">
         <v>21</v>
       </c>
-    </row>
-    <row r="68" spans="10:17">
-      <c r="J68" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="K68">
-        <v>0.3823529411764706</v>
-      </c>
-      <c r="L68">
-        <v>13</v>
-      </c>
-      <c r="M68">
-        <v>13</v>
-      </c>
-      <c r="N68">
-        <v>1</v>
-      </c>
-      <c r="O68">
-        <v>0</v>
-      </c>
-      <c r="P68" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q68">
+      <c r="M76">
         <v>21</v>
       </c>
-    </row>
-    <row r="69" spans="10:17">
-      <c r="J69" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="K69">
-        <v>0.3728813559322034</v>
-      </c>
-      <c r="L69">
-        <v>22</v>
-      </c>
-      <c r="M69">
-        <v>22</v>
-      </c>
-      <c r="N69">
-        <v>1</v>
-      </c>
-      <c r="O69">
-        <v>0</v>
-      </c>
-      <c r="P69" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q69">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="70" spans="10:17">
-      <c r="J70" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="K70">
-        <v>0.325</v>
-      </c>
-      <c r="L70">
-        <v>13</v>
-      </c>
-      <c r="M70">
-        <v>13</v>
-      </c>
-      <c r="N70">
-        <v>1</v>
-      </c>
-      <c r="O70">
-        <v>0</v>
-      </c>
-      <c r="P70" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q70">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="71" spans="10:17">
-      <c r="J71" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="K71">
-        <v>0.2830188679245283</v>
-      </c>
-      <c r="L71">
-        <v>15</v>
-      </c>
-      <c r="M71">
-        <v>15</v>
-      </c>
-      <c r="N71">
-        <v>1</v>
-      </c>
-      <c r="O71">
-        <v>0</v>
-      </c>
-      <c r="P71" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q71">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="72" spans="10:17">
-      <c r="J72" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="K72">
-        <v>0.2096774193548387</v>
-      </c>
-      <c r="L72">
-        <v>26</v>
-      </c>
-      <c r="M72">
-        <v>26</v>
-      </c>
-      <c r="N72">
-        <v>1</v>
-      </c>
-      <c r="O72">
-        <v>0</v>
-      </c>
-      <c r="P72" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q72">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="73" spans="10:17">
-      <c r="J73" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="K73">
-        <v>0.2083333333333333</v>
-      </c>
-      <c r="L73">
-        <v>15</v>
-      </c>
-      <c r="M73">
-        <v>15</v>
-      </c>
-      <c r="N73">
-        <v>1</v>
-      </c>
-      <c r="O73">
-        <v>0</v>
-      </c>
-      <c r="P73" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q73">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="74" spans="10:17">
-      <c r="J74" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="K74">
-        <v>0.1388888888888889</v>
-      </c>
-      <c r="L74">
-        <v>15</v>
-      </c>
-      <c r="M74">
-        <v>16</v>
-      </c>
-      <c r="N74">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="O74">
-        <v>0.06000000000000005</v>
-      </c>
-      <c r="P74" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q74">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="75" spans="10:17">
-      <c r="J75" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="K75">
-        <v>0.04086538461538462</v>
-      </c>
-      <c r="L75">
-        <v>17</v>
-      </c>
-      <c r="M75">
-        <v>17</v>
-      </c>
-      <c r="N75">
-        <v>1</v>
-      </c>
-      <c r="O75">
-        <v>0</v>
-      </c>
-      <c r="P75" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q75">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="76" spans="10:17">
-      <c r="J76" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="K76">
-        <v>0.02835696413678065</v>
-      </c>
-      <c r="L76">
-        <v>34</v>
-      </c>
-      <c r="M76">
-        <v>35</v>
-      </c>
       <c r="N76">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O76">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q76">
-        <v>1165</v>
-      </c>
-    </row>
-    <row r="77" spans="10:17">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17">
       <c r="J77" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="K77">
-        <v>0.01071203528670447</v>
+        <v>0.05519480519480519</v>
       </c>
       <c r="L77">
         <v>17</v>
       </c>
       <c r="M77">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="N77">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="O77">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="P77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q77">
-        <v>1570</v>
-      </c>
-    </row>
-    <row r="78" spans="10:17">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17">
       <c r="J78" s="1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="K78">
-        <v>0.009717868338557993</v>
+        <v>0.04260651629072681</v>
       </c>
       <c r="L78">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="M78">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="N78">
-        <v>0.74</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O78">
-        <v>0.26</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P78" t="b">
         <v>1</v>
       </c>
       <c r="Q78">
-        <v>3159</v>
-      </c>
-    </row>
-    <row r="79" spans="10:17">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17">
       <c r="J79" s="1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="K79">
-        <v>0.00864336715520481</v>
+        <v>0.04086538461538462</v>
       </c>
       <c r="L79">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M79">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="N79">
-        <v>0.66</v>
+        <v>0.89</v>
       </c>
       <c r="O79">
-        <v>0.34</v>
+        <v>0.11</v>
       </c>
       <c r="P79" t="b">
         <v>1</v>
       </c>
       <c r="Q79">
-        <v>2638</v>
-      </c>
-    </row>
-    <row r="80" spans="10:17">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17">
       <c r="J80" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="K80">
-        <v>0.007809288943690916</v>
+        <v>0.03125</v>
       </c>
       <c r="L80">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M80">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="N80">
-        <v>0.61</v>
+        <v>1</v>
       </c>
       <c r="O80">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="P80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q80">
-        <v>2414</v>
+        <v>403</v>
       </c>
     </row>
     <row r="81" spans="10:17">
       <c r="J81" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="K81">
-        <v>0.007528230865746549</v>
+        <v>0.02925045703839122</v>
       </c>
       <c r="L81">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M81">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="N81">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="O81">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="P81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q81">
-        <v>2373</v>
+        <v>531</v>
       </c>
     </row>
     <row r="82" spans="10:17">
       <c r="J82" s="1" t="s">
-        <v>68</v>
+        <v>153</v>
       </c>
       <c r="K82">
-        <v>0.005646417445482866</v>
+        <v>0.01839339339339339</v>
       </c>
       <c r="L82">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="M82">
         <v>58</v>
       </c>
       <c r="N82">
-        <v>0.5</v>
+        <v>0.84</v>
       </c>
       <c r="O82">
-        <v>0.5</v>
+        <v>0.16</v>
       </c>
       <c r="P82" t="b">
         <v>1</v>
       </c>
       <c r="Q82">
-        <v>5107</v>
+        <v>2615</v>
       </c>
     </row>
     <row r="83" spans="10:17">
       <c r="J83" s="1" t="s">
-        <v>66</v>
+        <v>154</v>
       </c>
       <c r="K83">
-        <v>0.005237711522965351</v>
+        <v>0.01727642276422764</v>
       </c>
       <c r="L83">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="M83">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="N83">
-        <v>0.45</v>
+        <v>0.77</v>
       </c>
       <c r="O83">
-        <v>0.55</v>
+        <v>0.23</v>
       </c>
       <c r="P83" t="b">
         <v>1</v>
       </c>
       <c r="Q83">
-        <v>4938</v>
+        <v>967</v>
       </c>
     </row>
     <row r="84" spans="10:17">
       <c r="J84" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="K84">
+        <v>0.01328125</v>
+      </c>
+      <c r="L84">
+        <v>17</v>
+      </c>
+      <c r="M84">
+        <v>26</v>
+      </c>
+      <c r="N84">
+        <v>0.65</v>
+      </c>
+      <c r="O84">
+        <v>0.35</v>
+      </c>
+      <c r="P84" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q84">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="85" spans="10:17">
+      <c r="J85" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="K85">
+        <v>0.01320754716981132</v>
+      </c>
+      <c r="L85">
+        <v>21</v>
+      </c>
+      <c r="M85">
+        <v>25</v>
+      </c>
+      <c r="N85">
+        <v>0.84</v>
+      </c>
+      <c r="O85">
+        <v>0.16</v>
+      </c>
+      <c r="P85" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q85">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="86" spans="10:17">
+      <c r="J86" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="K86">
+        <v>0.01047339757017176</v>
+      </c>
+      <c r="L86">
+        <v>25</v>
+      </c>
+      <c r="M86">
+        <v>32</v>
+      </c>
+      <c r="N86">
+        <v>0.78</v>
+      </c>
+      <c r="O86">
+        <v>0.22</v>
+      </c>
+      <c r="P86" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q86">
+        <v>2362</v>
+      </c>
+    </row>
+    <row r="87" spans="10:17">
+      <c r="J87" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K87">
+        <v>0.009872480460715755</v>
+      </c>
+      <c r="L87">
+        <v>24</v>
+      </c>
+      <c r="M87">
+        <v>38</v>
+      </c>
+      <c r="N87">
+        <v>0.63</v>
+      </c>
+      <c r="O87">
+        <v>0.37</v>
+      </c>
+      <c r="P87" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q87">
+        <v>2407</v>
+      </c>
+    </row>
+    <row r="88" spans="10:17">
+      <c r="J88" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="K88">
+        <v>0.008387698042870456</v>
+      </c>
+      <c r="L88">
+        <v>18</v>
+      </c>
+      <c r="M88">
+        <v>30</v>
+      </c>
+      <c r="N88">
+        <v>0.6</v>
+      </c>
+      <c r="O88">
+        <v>0.4</v>
+      </c>
+      <c r="P88" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q88">
+        <v>2128</v>
+      </c>
+    </row>
+    <row r="89" spans="10:17">
+      <c r="J89" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K89">
+        <v>0.007667473769168685</v>
+      </c>
+      <c r="L89">
+        <v>38</v>
+      </c>
+      <c r="M89">
+        <v>78</v>
+      </c>
+      <c r="N89">
+        <v>0.49</v>
+      </c>
+      <c r="O89">
+        <v>0.51</v>
+      </c>
+      <c r="P89" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q89">
+        <v>4918</v>
+      </c>
+    </row>
+    <row r="90" spans="10:17">
+      <c r="J90" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="K90">
+        <v>0.007525870178739417</v>
+      </c>
+      <c r="L90">
+        <v>24</v>
+      </c>
+      <c r="M90">
+        <v>36</v>
+      </c>
+      <c r="N90">
+        <v>0.67</v>
+      </c>
+      <c r="O90">
+        <v>0.33</v>
+      </c>
+      <c r="P90" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q90">
+        <v>3165</v>
+      </c>
+    </row>
+    <row r="91" spans="10:17">
+      <c r="J91" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K91">
+        <v>0.007438400743840074</v>
+      </c>
+      <c r="L91">
+        <v>32</v>
+      </c>
+      <c r="M91">
+        <v>58</v>
+      </c>
+      <c r="N91">
+        <v>0.55</v>
+      </c>
+      <c r="O91">
+        <v>0.45</v>
+      </c>
+      <c r="P91" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q91">
+        <v>4270</v>
+      </c>
+    </row>
+    <row r="92" spans="10:17">
+      <c r="J92" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="K84">
-        <v>0.004408352668213457</v>
-      </c>
-      <c r="L84">
-        <v>19</v>
-      </c>
-      <c r="M84">
-        <v>37</v>
-      </c>
-      <c r="N84">
-        <v>0.51</v>
-      </c>
-      <c r="O84">
-        <v>0.49</v>
-      </c>
-      <c r="P84" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q84">
-        <v>4291</v>
+      <c r="K92">
+        <v>0.007417102966841187</v>
+      </c>
+      <c r="L92">
+        <v>17</v>
+      </c>
+      <c r="M92">
+        <v>34</v>
+      </c>
+      <c r="N92">
+        <v>0.5</v>
+      </c>
+      <c r="O92">
+        <v>0.5</v>
+      </c>
+      <c r="P92" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q92">
+        <v>2275</v>
+      </c>
+    </row>
+    <row r="93" spans="10:17">
+      <c r="J93" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K93">
+        <v>0.006422732580770728</v>
+      </c>
+      <c r="L93">
+        <v>33</v>
+      </c>
+      <c r="M93">
+        <v>60</v>
+      </c>
+      <c r="N93">
+        <v>0.55</v>
+      </c>
+      <c r="O93">
+        <v>0.45</v>
+      </c>
+      <c r="P93" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q93">
+        <v>5105</v>
+      </c>
+    </row>
+    <row r="94" spans="10:17">
+      <c r="J94" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K94">
+        <v>0.005553182400683468</v>
+      </c>
+      <c r="L94">
+        <v>13</v>
+      </c>
+      <c r="M94">
+        <v>51</v>
+      </c>
+      <c r="N94">
+        <v>0.25</v>
+      </c>
+      <c r="O94">
+        <v>0.75</v>
+      </c>
+      <c r="P94" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q94">
+        <v>2328</v>
       </c>
     </row>
   </sheetData>
